--- a/medicine/Enfance/Maryvonne_Rippert/Maryvonne_Rippert.xlsx
+++ b/medicine/Enfance/Maryvonne_Rippert/Maryvonne_Rippert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maryvonne Rippert, née à Alba-la-Romaine (Ardèche) le 5 mai 1953, est une auteure française de littérature pour la jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Maryvonne Rippert est née  dans une famille d'agriculteurs ardéchois, elle a vécu pendant plus de vingt ans à Paris où elle a travaillé à la documentation de l'Express. De retour dans la région lyonnaise, à Saint-Genis-Laval, elle se consacre à l'écriture et anime des ateliers d'écriture ou des stages d'écriture. Elle est l'autrice de nombreux romans de littérature jeunesse, notamment la série Les Cercles de Goldie (éd. Fleurus) sous le pseudo de Billie Cairn. Mariée, elle a deux enfants.
 Sous le pseudonyme de Billie Cairn, écrit la série "Les Cercles de Goldie" chez Fleurus Mame.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mathilde, le petit bonheur, éditions la Renardière, 1996. « Neuf mois et cent jours d'amour, la mort subite du nourrisson évoquée par les monologues entrelacés de la mère et son enfant, dans un chant à deux voix, d'où émergent l'espoir et la consolation ».
 La minute qui n'existe pas, Magnard jeunesse, 2001 ; Jacques André, 2005. « Un roman fantastique sur l'Alchimie, dans les lieux magiques de l'Observatoire astronomique de Lyon ».
@@ -580,7 +596,7 @@
 Rôde Movie Compil  Blue Cerises saison 2. Milan. octobre 2011
 La Minute papillon Compil  Blue Cerises saison 3. Milan. janvier 2012
 Lune bleue  Compil  Blue Cerises saison 4. Milan. février 2012
-Alabama Blues  avec Les Chics Types. Oskar Éditions. octobre 2012[1]. Premier roman de littérature jeunesse intégrant des QR codes
+Alabama Blues  avec Les Chics Types. Oskar Éditions. octobre 2012. Premier roman de littérature jeunesse intégrant des QR codes
 Le grimoire de la princesse Fleurus éditions octobre 2013
 Les cercles de Goldie sous pseudonyme Billie Cairn. 3 tomes. Fleurus éditions. 2014 2015. 2016.
 Mon cher correspondant Fleurus éditions octobre 2018 Prix Jacques Asklund 2021
